--- a/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2228245-14D8-4430-B6B6-C002FB61B35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4C47D-1FF9-44D3-B4D7-04A90A6639FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="1" r:id="rId1"/>
-    <sheet name="UM" sheetId="2" r:id="rId2"/>
-    <sheet name="RT-UM" sheetId="4" r:id="rId3"/>
-    <sheet name="PENGECER" sheetId="3" r:id="rId4"/>
-    <sheet name="RT-PENGECER" sheetId="6" r:id="rId5"/>
-    <sheet name="RT-UM-PENGECER" sheetId="5" r:id="rId6"/>
+    <sheet name="RT-UM" sheetId="4" r:id="rId2"/>
+    <sheet name="RT-PENGECER" sheetId="6" r:id="rId3"/>
+    <sheet name="RT-UM-PENGECER" sheetId="5" r:id="rId4"/>
+    <sheet name="UM" sheetId="2" r:id="rId5"/>
+    <sheet name="PENGECER" sheetId="3" r:id="rId6"/>
     <sheet name="UM-PENGECER" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
   <si>
     <t>MAKBULIN</t>
   </si>
@@ -502,6 +502,153 @@
   </si>
   <si>
     <t>5203133112610108</t>
+  </si>
+  <si>
+    <t>5203130107870631</t>
+  </si>
+  <si>
+    <t>5203137112950075</t>
+  </si>
+  <si>
+    <t>5203132607740002</t>
+  </si>
+  <si>
+    <t>5203134107820710</t>
+  </si>
+  <si>
+    <t>5203136601980002</t>
+  </si>
+  <si>
+    <t>5203131906850002</t>
+  </si>
+  <si>
+    <t>5203135111810002</t>
+  </si>
+  <si>
+    <t>5203130107850579</t>
+  </si>
+  <si>
+    <t>5203134107820792</t>
+  </si>
+  <si>
+    <t>5203134712910004</t>
+  </si>
+  <si>
+    <t>5203131710830001</t>
+  </si>
+  <si>
+    <t>5203135809860001</t>
+  </si>
+  <si>
+    <t>5203134112840014</t>
+  </si>
+  <si>
+    <t>5203132107820001</t>
+  </si>
+  <si>
+    <t>5203134607950009</t>
+  </si>
+  <si>
+    <t>5203133112800333</t>
+  </si>
+  <si>
+    <t>5203130203810001</t>
+  </si>
+  <si>
+    <t>5203136209840003</t>
+  </si>
+  <si>
+    <t>5203130501840007</t>
+  </si>
+  <si>
+    <t>5203134203780002</t>
+  </si>
+  <si>
+    <t>5203136901070004</t>
+  </si>
+  <si>
+    <t>5203131908840003</t>
+  </si>
+  <si>
+    <t>5203131011770003</t>
+  </si>
+  <si>
+    <t>5203137112980055</t>
+  </si>
+  <si>
+    <t>5203130107840092</t>
+  </si>
+  <si>
+    <t>5203134107880101</t>
+  </si>
+  <si>
+    <t>5203131103880006</t>
+  </si>
+  <si>
+    <t>5203134405950002</t>
+  </si>
+  <si>
+    <t>5203131506910005</t>
+  </si>
+  <si>
+    <t>5203135606940004</t>
+  </si>
+  <si>
+    <t>5203132506800001</t>
+  </si>
+  <si>
+    <t>5203134112890002</t>
+  </si>
+  <si>
+    <t>5203131002840007</t>
+  </si>
+  <si>
+    <t>5203131008740001</t>
+  </si>
+  <si>
+    <t>5203131205820002</t>
+  </si>
+  <si>
+    <t>5203134107840459</t>
+  </si>
+  <si>
+    <t>5203133112860026</t>
+  </si>
+  <si>
+    <t>5203136807910002</t>
+  </si>
+  <si>
+    <t>5203131207810001</t>
+  </si>
+  <si>
+    <t>5203137112820150</t>
+  </si>
+  <si>
+    <t>5203137112680059</t>
+  </si>
+  <si>
+    <t>5203131202750002</t>
+  </si>
+  <si>
+    <t>5203137112760142</t>
+  </si>
+  <si>
+    <t>5203134811860002</t>
+  </si>
+  <si>
+    <t>5203131111860004</t>
+  </si>
+  <si>
+    <t>5203134505830005</t>
+  </si>
+  <si>
+    <t>5203132202710001</t>
+  </si>
+  <si>
+    <t>5203134107740406</t>
+  </si>
+  <si>
+    <t>5203134103730005</t>
   </si>
 </sst>
 </file>
@@ -558,16 +705,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -877,408 +1040,1309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90631D1A-80DC-4088-BECF-DCE093354C57}">
-  <dimension ref="A2:C37"/>
+  <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>72</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>74</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>94</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>75</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>71</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>57</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>46</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>48</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>55</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>58</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>31</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>85</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>63</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C85">
+    <sortCondition ref="C3:C85"/>
+  </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F78A0B-A196-49A8-A4D4-DD4D778B4828}">
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370AA56C-0162-494E-A73A-27287AB2B013}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8444B8-F510-47B4-9E91-281A05CDEABF}">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>80</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>82</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>86</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>87</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>89</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>91</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +2350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4D8994-4338-47A1-A5BC-3B3E52745504}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1298,148 +2362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F78A0B-A196-49A8-A4D4-DD4D778B4828}">
-  <dimension ref="A2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E4E0A-2CDB-4C21-92DD-A22AC46B3CEE}">
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,347 +2403,6 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370AA56C-0162-494E-A73A-27287AB2B013}">
-  <dimension ref="A2:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>93</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8444B8-F510-47B4-9E91-281A05CDEABF}">
-  <dimension ref="A2:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>76</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>77</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>81</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>94</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4C47D-1FF9-44D3-B4D7-04A90A6639FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DB3AC-8051-49A3-9239-C2F5C91DB09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
   <si>
     <t>MAKBULIN</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>5203134103730005</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>tdk dpat</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90631D1A-80DC-4088-BECF-DCE093354C57}">
-  <dimension ref="A2:C85"/>
+  <dimension ref="A2:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,7 +1361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>70</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>39</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>24</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>53</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>76</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>19</v>
       </c>
@@ -1454,8 +1460,11 @@
       <c r="C42" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>94</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>93</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>15</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>40</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>61</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>31</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>85</v>
       </c>
@@ -1826,15 +1835,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>38</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>63</v>
       </c>
@@ -1866,7 +1878,7 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2010,7 +2022,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2216,15 +2228,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8444B8-F510-47B4-9E91-281A05CDEABF}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A4:C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2234,8 +2249,11 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2257,7 +2275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2415,7 +2433,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtarfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DB3AC-8051-49A3-9239-C2F5C91DB09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922B861-F612-4486-9F3D-6172711EA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26A38A9C-237C-4A1F-A421-44F8706E8CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
   <si>
     <t>MAKBULIN</t>
   </si>
@@ -324,12 +324,6 @@
     <t>5203097112910217</t>
   </si>
   <si>
-    <t>ABDULLATIP</t>
-  </si>
-  <si>
-    <t>5203133112920168</t>
-  </si>
-  <si>
     <t>SANAWIYAH</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>5203131207810001</t>
   </si>
   <si>
-    <t>5203137112820150</t>
-  </si>
-  <si>
     <t>5203137112680059</t>
   </si>
   <si>
@@ -649,9 +640,6 @@
   </si>
   <si>
     <t>5203134103730005</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>tdk dpat</t>
@@ -1046,19 +1034,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90631D1A-80DC-4088-BECF-DCE093354C57}">
-  <dimension ref="A2:D85"/>
+  <dimension ref="A2:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C83" sqref="A2:C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1069,9 +1057,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
@@ -1080,9 +1068,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>95</v>
@@ -1091,7 +1079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1102,45 +1090,45 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>61</v>
@@ -1149,9 +1137,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
@@ -1160,199 +1148,199 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
@@ -1361,49 +1349,49 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>49</v>
@@ -1412,25 +1400,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>55</v>
@@ -1439,432 +1427,407 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>19</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>94</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>93</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="B70" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>40</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>61</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="C71" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="C76" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>71</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>57</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>67</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>90</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>26</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>34</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>46</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>86</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>43</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>27</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>29</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>69</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>23</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>20</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>48</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>25</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>55</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>41</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>17</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>77</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="C78" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>58</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>35</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>13</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>31</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C81" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>38</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>63</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C85">
-    <sortCondition ref="C3:C85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C83">
+    <sortCondition ref="C3:C83"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -1881,12 +1844,12 @@
       <selection activeCell="A9" sqref="A9:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1897,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1908,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1919,7 +1882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1930,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1941,7 +1904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1952,12 +1915,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1968,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1979,7 +1942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1990,7 +1953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2001,15 +1964,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2025,13 +1988,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2045,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2056,7 +2019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2067,7 +2030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2078,7 +2041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2089,7 +2052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2100,7 +2063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2111,7 +2074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2122,7 +2085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2133,7 +2096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2144,7 +2107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2155,7 +2118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2166,51 +2129,51 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2231,15 +2194,15 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2250,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2264,7 +2227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2275,7 +2238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2286,81 +2249,81 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,9 +2351,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2401,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -2412,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>54</v>
       </c>
@@ -2436,9 +2399,9 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
@@ -2449,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62</v>
       </c>
